--- a/natmiOut/OldD0/LR-pairs_lrc2p/Psap-Lrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Psap-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>190.337580099786</v>
+        <v>339.4154793333333</v>
       </c>
       <c r="H2">
-        <v>190.337580099786</v>
+        <v>1018.246438</v>
       </c>
       <c r="I2">
-        <v>0.3788825027117524</v>
+        <v>0.5189044318468032</v>
       </c>
       <c r="J2">
-        <v>0.3788825027117524</v>
+        <v>0.5189044318468032</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N2">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q2">
-        <v>2050.253327052913</v>
+        <v>7155.493890887684</v>
       </c>
       <c r="R2">
-        <v>2050.253327052913</v>
+        <v>64399.44501798916</v>
       </c>
       <c r="S2">
-        <v>0.01153095724529632</v>
+        <v>0.02966088942454735</v>
       </c>
       <c r="T2">
-        <v>0.01153095724529632</v>
+        <v>0.02966088942454735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>190.337580099786</v>
+        <v>339.4154793333333</v>
       </c>
       <c r="H3">
-        <v>190.337580099786</v>
+        <v>1018.246438</v>
       </c>
       <c r="I3">
-        <v>0.3788825027117524</v>
+        <v>0.5189044318468032</v>
       </c>
       <c r="J3">
-        <v>0.3788825027117524</v>
+        <v>0.5189044318468032</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N3">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q3">
-        <v>56690.25842350954</v>
+        <v>102367.7590267013</v>
       </c>
       <c r="R3">
-        <v>56690.25842350954</v>
+        <v>921309.8312403114</v>
       </c>
       <c r="S3">
-        <v>0.3188352080598366</v>
+        <v>0.4243339212400642</v>
       </c>
       <c r="T3">
-        <v>0.3188352080598366</v>
+        <v>0.4243339212400642</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>190.337580099786</v>
+        <v>339.4154793333333</v>
       </c>
       <c r="H4">
-        <v>190.337580099786</v>
+        <v>1018.246438</v>
       </c>
       <c r="I4">
-        <v>0.3788825027117524</v>
+        <v>0.5189044318468032</v>
       </c>
       <c r="J4">
-        <v>0.3788825027117524</v>
+        <v>0.5189044318468032</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N4">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q4">
-        <v>8626.411499784135</v>
+        <v>15659.01787977468</v>
       </c>
       <c r="R4">
-        <v>8626.411499784135</v>
+        <v>140931.1609179721</v>
       </c>
       <c r="S4">
-        <v>0.04851633740661949</v>
+        <v>0.06490962118219171</v>
       </c>
       <c r="T4">
-        <v>0.04851633740661949</v>
+        <v>0.06490962118219171</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>242.01564117535</v>
+        <v>243.634776</v>
       </c>
       <c r="H5">
-        <v>242.01564117535</v>
+        <v>730.9043280000001</v>
       </c>
       <c r="I5">
-        <v>0.481751905093224</v>
+        <v>0.3724731861573274</v>
       </c>
       <c r="J5">
-        <v>0.481751905093224</v>
+        <v>0.3724731861573274</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N5">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q5">
-        <v>2606.912272702385</v>
+        <v>5136.262950352072</v>
       </c>
       <c r="R5">
-        <v>2606.912272702385</v>
+        <v>46226.36655316865</v>
       </c>
       <c r="S5">
-        <v>0.01466169744105659</v>
+        <v>0.02129079134842119</v>
       </c>
       <c r="T5">
-        <v>0.01466169744105659</v>
+        <v>0.02129079134842119</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>242.01564117535</v>
+        <v>243.634776</v>
       </c>
       <c r="H6">
-        <v>242.01564117535</v>
+        <v>730.9043280000001</v>
       </c>
       <c r="I6">
-        <v>0.481751905093224</v>
+        <v>0.3724731861573274</v>
       </c>
       <c r="J6">
-        <v>0.481751905093224</v>
+        <v>0.3724731861573274</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N6">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q6">
-        <v>72082.08296842466</v>
+        <v>73480.28466197003</v>
       </c>
       <c r="R6">
-        <v>72082.08296842466</v>
+        <v>661322.5619577303</v>
       </c>
       <c r="S6">
-        <v>0.4054013257257137</v>
+        <v>0.3045898202803967</v>
       </c>
       <c r="T6">
-        <v>0.4054013257257137</v>
+        <v>0.3045898202803967</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>242.01564117535</v>
+        <v>243.634776</v>
       </c>
       <c r="H7">
-        <v>242.01564117535</v>
+        <v>730.9043280000001</v>
       </c>
       <c r="I7">
-        <v>0.481751905093224</v>
+        <v>0.3724731861573274</v>
       </c>
       <c r="J7">
-        <v>0.481751905093224</v>
+        <v>0.3724731861573274</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N7">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q7">
-        <v>10968.54603840273</v>
+        <v>11240.15121824241</v>
       </c>
       <c r="R7">
-        <v>10968.54603840273</v>
+        <v>101161.3609641817</v>
       </c>
       <c r="S7">
-        <v>0.06168888192645376</v>
+        <v>0.04659257452850957</v>
       </c>
       <c r="T7">
-        <v>0.06168888192645376</v>
+        <v>0.04659257452850957</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>70.0124956357654</v>
+        <v>71.049919</v>
       </c>
       <c r="H8">
-        <v>70.0124956357654</v>
+        <v>213.149757</v>
       </c>
       <c r="I8">
-        <v>0.1393655921950237</v>
+        <v>0.1086223819958692</v>
       </c>
       <c r="J8">
-        <v>0.1393655921950237</v>
+        <v>0.1086223819958692</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N8">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q8">
-        <v>754.1513979386091</v>
+        <v>1497.86115338976</v>
       </c>
       <c r="R8">
-        <v>754.1513979386091</v>
+        <v>13480.75038050784</v>
       </c>
       <c r="S8">
-        <v>0.004241469779059219</v>
+        <v>0.006208920686885957</v>
       </c>
       <c r="T8">
-        <v>0.004241469779059219</v>
+        <v>0.006208920686885957</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>70.0124956357654</v>
+        <v>71.049919</v>
       </c>
       <c r="H9">
-        <v>70.0124956357654</v>
+        <v>213.149757</v>
       </c>
       <c r="I9">
-        <v>0.1393655921950237</v>
+        <v>0.1086223819958692</v>
       </c>
       <c r="J9">
-        <v>0.1393655921950237</v>
+        <v>0.1086223819958692</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N9">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q9">
-        <v>20852.56347372695</v>
+        <v>21428.66613315462</v>
       </c>
       <c r="R9">
-        <v>20852.56347372695</v>
+        <v>192857.9951983916</v>
       </c>
       <c r="S9">
-        <v>0.1172781990877206</v>
+        <v>0.08882591563671823</v>
       </c>
       <c r="T9">
-        <v>0.1172781990877206</v>
+        <v>0.08882591563671823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>70.0124956357654</v>
+        <v>71.049919</v>
       </c>
       <c r="H10">
-        <v>70.0124956357654</v>
+        <v>213.149757</v>
       </c>
       <c r="I10">
-        <v>0.1393655921950237</v>
+        <v>0.1086223819958692</v>
       </c>
       <c r="J10">
-        <v>0.1393655921950237</v>
+        <v>0.1086223819958692</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N10">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q10">
-        <v>3173.081202168926</v>
+        <v>3277.905751861445</v>
       </c>
       <c r="R10">
-        <v>3173.081202168926</v>
+        <v>29501.151766753</v>
       </c>
       <c r="S10">
-        <v>0.01784592332824393</v>
+        <v>0.01358754567226506</v>
       </c>
       <c r="T10">
-        <v>0.01784592332824393</v>
+        <v>0.01358754567226506</v>
       </c>
     </row>
   </sheetData>
